--- a/biology/Mycologie/Henningsomyces/Henningsomyces.xlsx
+++ b/biology/Mycologie/Henningsomyces/Henningsomyces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henningsomyces est un genre de champignons de la famille Marasmiaceae[2],[1] ou des Schizophyllaceae selon les classifications.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henningsomyces est un genre de champignons de la famille Marasmiaceae, ou des Schizophyllaceae selon les classifications.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'Index Fungorum (juin 2015), le genre Henningsomyces regroupe 10 espèces[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'Index Fungorum (juin 2015), le genre Henningsomyces regroupe 10 espèces
 Henningsomyces candidus
 Henningsomyces leptus
 Henningsomyces mutabilis
@@ -552,7 +566,9 @@
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans certains cas, des espèces de ce genre pourraient être confondues avec celles du genre Ceratiomyxa et (dans une moindre mesure pour les formes jeunes ou éparses) avec celles du genre Multiclavula ou avec des champignons de la famille des Clavulinaceae.
 </t>
